--- a/fuentes/contenidos/grado06/guion01/EsqueletoGuion_LE_06_01_CO.xlsx
+++ b/fuentes/contenidos/grado06/guion01/EsqueletoGuion_LE_06_01_CO.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PLANETA\TEMAS\TEMA 1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3405" yWindow="1395" windowWidth="19440" windowHeight="13125" tabRatio="729" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="3408" yWindow="1392" windowWidth="15600" windowHeight="9240" tabRatio="729" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="GUION" sheetId="1" r:id="rId1"/>
@@ -18,7 +13,12 @@
     <sheet name="CUADERNO DEL PROFESOR" sheetId="15" r:id="rId4"/>
     <sheet name="CUADERNO DE ESTUDIO" sheetId="16" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'CUADERNO DE ESTUDIO'!$A$1:$I$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'CUADERNO DEL PROFESOR'!$A$1:$C$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'RECURSOS NUEVOS'!$A$1:$C$18</definedName>
+  </definedNames>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -364,7 +364,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -383,8 +383,44 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -405,6 +441,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="401">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -809,7 +860,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -825,10 +876,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -851,17 +898,66 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1536,7 +1632,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1546,58 +1642,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" customWidth="1"/>
-    <col min="2" max="2" width="104.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.44140625" customWidth="1"/>
+    <col min="2" max="2" width="104.33203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:2" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1620,42 +1716,44 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="64.7109375" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>6</v>
       </c>
@@ -1681,7 +1779,7 @@
       <c r="K2"/>
       <c r="L2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>6</v>
       </c>
@@ -1701,7 +1799,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>6</v>
       </c>
@@ -1721,7 +1819,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>6</v>
       </c>
@@ -1741,8 +1839,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B6" t="s">
@@ -1761,7 +1859,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1781,7 +1879,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1801,7 +1899,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1820,9 +1918,9 @@
       <c r="F9">
         <v>20</v>
       </c>
-      <c r="G9" s="10"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>6</v>
       </c>
@@ -1841,9 +1939,9 @@
       <c r="F10">
         <v>21</v>
       </c>
-      <c r="G10" s="10"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>6</v>
       </c>
@@ -1862,10 +1960,10 @@
       <c r="F11">
         <v>22</v>
       </c>
-      <c r="G11" s="10"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B12" t="s">
@@ -1883,10 +1981,10 @@
       <c r="F12">
         <v>23</v>
       </c>
-      <c r="G12" s="10"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B13" t="s">
@@ -1905,8 +2003,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B14" t="s">
@@ -1925,8 +2023,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B15" t="s">
@@ -1945,8 +2043,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B16" t="s">
@@ -1965,8 +2063,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B17" t="s">
@@ -2001,28 +2099,29 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="66.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="54.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:3" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
         <v>48</v>
       </c>
       <c r="B2" t="s">
@@ -2032,8 +2131,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+    <row r="3" spans="1:3" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
         <v>50</v>
       </c>
       <c r="B3" t="s">
@@ -2043,8 +2142,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+    <row r="4" spans="1:3" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B4" t="s">
@@ -2054,8 +2153,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+    <row r="5" spans="1:3" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
         <v>53</v>
       </c>
       <c r="B5" t="s">
@@ -2065,8 +2164,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
         <v>54</v>
       </c>
       <c r="B6" t="s">
@@ -2076,8 +2175,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="16" t="s">
         <v>55</v>
       </c>
       <c r="B7" t="s">
@@ -2087,8 +2186,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="16" t="s">
         <v>56</v>
       </c>
       <c r="B8" t="s">
@@ -2098,8 +2197,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="16" t="s">
         <v>57</v>
       </c>
       <c r="B9" t="s">
@@ -2109,8 +2208,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="16" t="s">
         <v>58</v>
       </c>
       <c r="B10" t="s">
@@ -2120,8 +2219,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="16" t="s">
         <v>59</v>
       </c>
       <c r="B11" t="s">
@@ -2131,8 +2230,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+    <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="16" t="s">
         <v>60</v>
       </c>
       <c r="B12" t="s">
@@ -2142,8 +2241,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+    <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="16" t="s">
         <v>61</v>
       </c>
       <c r="B13" t="s">
@@ -2153,8 +2252,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+    <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="16" t="s">
         <v>62</v>
       </c>
       <c r="B14" t="s">
@@ -2164,8 +2263,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+    <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="16" t="s">
         <v>63</v>
       </c>
       <c r="B15" t="s">
@@ -2175,8 +2274,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+    <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="16" t="s">
         <v>64</v>
       </c>
       <c r="B16" t="s">
@@ -2186,8 +2285,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
+    <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="16" t="s">
         <v>65</v>
       </c>
       <c r="B17" t="s">
@@ -2197,8 +2296,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
+    <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="16" t="s">
         <v>66</v>
       </c>
       <c r="B18" t="s">
@@ -2229,29 +2328,30 @@
   </sheetPr>
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="92.28515625" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2262,29 +2362,29 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" t="s">
         <v>48</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" t="s">
         <v>50</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2295,7 +2395,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2306,7 +2406,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2317,29 +2417,29 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" t="s">
         <v>51</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" t="s">
         <v>53</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2350,18 +2450,18 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" t="s">
         <v>54</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2372,7 +2472,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2383,84 +2483,84 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" t="s">
         <v>55</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" t="s">
         <v>56</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" t="s">
         <v>57</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" t="s">
         <v>58</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" t="s">
         <v>59</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" t="s">
         <v>60</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" t="s">
         <v>61</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2471,7 +2571,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2482,7 +2582,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2493,7 +2593,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2504,7 +2604,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2515,7 +2615,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2526,7 +2626,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2537,40 +2637,40 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" t="s">
         <v>62</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" t="s">
         <v>63</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" t="s">
         <v>64</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2581,7 +2681,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2592,22 +2692,22 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" t="s">
         <v>65</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B34" t="s">
         <v>66</v>
       </c>
       <c r="C34" s="7" t="s">
@@ -2633,1533 +2733,1743 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A97" sqref="A97"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="61.28515625" style="3" customWidth="1"/>
-    <col min="5" max="7" width="17.85546875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="64.140625" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="59.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.44140625" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="8" t="s">
+    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="5"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="5"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="8" t="s">
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="5"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="19" t="s">
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="19"/>
+      <c r="D5" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="5"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="19" t="s">
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="19"/>
+      <c r="D6" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="19" t="s">
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="19"/>
+      <c r="D7" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="21" t="s">
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="48" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="19" t="s">
+    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="18" t="s">
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="I8" s="21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="19" t="s">
+      <c r="I8" s="48" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="22"/>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="19" t="s">
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="23"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="22"/>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="19" t="s">
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="23"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="19"/>
+      <c r="D11" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="22"/>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="19" t="s">
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="23"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="19"/>
+      <c r="D12" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="19" t="s">
+      <c r="E12" s="20"/>
+      <c r="F12" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="22"/>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="19" t="s">
+      <c r="H12" s="21"/>
+      <c r="I12" s="23"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="19"/>
+      <c r="D13" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="19" t="s">
+      <c r="E13" s="20"/>
+      <c r="F13" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="H13" s="5"/>
-      <c r="I13" s="22"/>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="19" t="s">
+      <c r="H13" s="21"/>
+      <c r="I13" s="23"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="19" t="s">
+      <c r="E14" s="20"/>
+      <c r="F14" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="H14" s="5"/>
-      <c r="I14" s="22"/>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="19" t="s">
+      <c r="H14" s="21"/>
+      <c r="I14" s="23"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="19" t="s">
+      <c r="E15" s="20"/>
+      <c r="F15" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="H15" s="18" t="s">
+      <c r="H15" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="19" t="s">
+      <c r="I15" s="23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="19"/>
+      <c r="D16" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="19" t="s">
+      <c r="E16" s="20"/>
+      <c r="F16" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I16" s="23" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="19" t="s">
+    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="19" t="s">
+      <c r="E17" s="20"/>
+      <c r="F17" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I17" s="23" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="19" t="s">
+    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="19" t="s">
+      <c r="E18" s="20"/>
+      <c r="F18" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="G18" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I18" s="23" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="19" t="s">
+    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="19" t="s">
+      <c r="E19" s="20"/>
+      <c r="F19" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="H19" s="18" t="s">
+      <c r="H19" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="19" t="s">
+      <c r="I19" s="23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="19"/>
+      <c r="D20" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="19" t="s">
+      <c r="E20" s="20"/>
+      <c r="F20" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="G20" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="H20" s="5"/>
-    </row>
-    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="19" t="s">
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="19" t="s">
+      <c r="E21" s="20"/>
+      <c r="F21" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="G21" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="H21" s="5"/>
-    </row>
-    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="19" t="s">
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="19" t="s">
+      <c r="E22" s="20"/>
+      <c r="F22" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="G22" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="H22" s="5"/>
-    </row>
-    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="19" t="s">
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+    </row>
+    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="19"/>
+      <c r="D23" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="19" t="s">
+      <c r="E23" s="20"/>
+      <c r="F23" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="G23" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="H23" s="5"/>
-    </row>
-    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="19" t="s">
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="19"/>
+      <c r="D24" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="19" t="s">
+      <c r="E24" s="20"/>
+      <c r="F24" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="G24" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="H24" s="5"/>
-    </row>
-    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="19" t="s">
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+    </row>
+    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="19"/>
+      <c r="D25" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="19" t="s">
+      <c r="E25" s="20"/>
+      <c r="F25" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="G25" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="H25" s="18" t="s">
+      <c r="H25" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="I25" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="19" t="s">
+      <c r="I25" s="23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="19"/>
+      <c r="D26" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="19" t="s">
+      <c r="E26" s="20"/>
+      <c r="F26" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="G26" s="9" t="s">
+      <c r="G26" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="I26" s="23" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="19" t="s">
+    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="19"/>
+      <c r="D27" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="19" t="s">
+      <c r="E27" s="20"/>
+      <c r="F27" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="G27" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="H27" s="18" t="s">
+      <c r="H27" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="I27" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" s="19" t="s">
+      <c r="I27" s="23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="19"/>
+      <c r="D28" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="F28" s="19" t="s">
+      <c r="E28" s="20"/>
+      <c r="F28" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="G28" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="I28" s="22"/>
-    </row>
-    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" s="19" t="s">
+      <c r="H28" s="21"/>
+      <c r="I28" s="23"/>
+    </row>
+    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="19"/>
+      <c r="D29" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="F29" s="19" t="s">
+      <c r="E29" s="20"/>
+      <c r="F29" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="G29" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="I29" s="22"/>
-    </row>
-    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" s="19" t="s">
+      <c r="H29" s="21"/>
+      <c r="I29" s="23"/>
+    </row>
+    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="19"/>
+      <c r="D30" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="F30" s="19" t="s">
+      <c r="E30" s="20"/>
+      <c r="F30" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="G30" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="I30" s="22"/>
-    </row>
-    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" s="19" t="s">
+      <c r="H30" s="21"/>
+      <c r="I30" s="23"/>
+    </row>
+    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="19"/>
+      <c r="D31" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="F31" s="19" t="s">
+      <c r="E31" s="20"/>
+      <c r="F31" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="G31" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I31" s="22"/>
-    </row>
-    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D32" s="19" t="s">
+      <c r="H31" s="21"/>
+      <c r="I31" s="23"/>
+    </row>
+    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="19"/>
+      <c r="D32" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="F32" s="19" t="s">
+      <c r="E32" s="20"/>
+      <c r="F32" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="G32" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="I32" s="23" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D33" s="19" t="s">
+    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="19"/>
+      <c r="D33" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="F33" s="19" t="s">
+      <c r="E33" s="20"/>
+      <c r="F33" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="G33" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H33" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="I33" s="23" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B34" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D34" s="19" t="s">
+    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="19"/>
+      <c r="D34" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="F34" s="19" t="s">
+      <c r="E34" s="20"/>
+      <c r="F34" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="G34" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="H34" s="18" t="s">
+      <c r="H34" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="I34" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B35" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D35" s="19" t="s">
+      <c r="I34" s="23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="19"/>
+      <c r="D35" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="46" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B36" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D36" s="19" t="s">
+      <c r="F35" s="46"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="47"/>
+    </row>
+    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="19"/>
+      <c r="D36" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="46" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B37" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D37" s="19" t="s">
+      <c r="F36" s="46"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="47"/>
+    </row>
+    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="19"/>
+      <c r="D37" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="46" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B38" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D38" s="19" t="s">
+      <c r="F37" s="46"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="47"/>
+      <c r="I37" s="47"/>
+    </row>
+    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" s="19"/>
+      <c r="D38" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="F38" s="19" t="s">
+      <c r="E38" s="46"/>
+      <c r="F38" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="G38" s="3" t="s">
+      <c r="G38" s="46" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B39" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D39" s="19" t="s">
+      <c r="H38" s="47"/>
+      <c r="I38" s="47"/>
+    </row>
+    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="19"/>
+      <c r="D39" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="F39" s="19" t="s">
+      <c r="E39" s="46"/>
+      <c r="F39" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="G39" s="3" t="s">
+      <c r="G39" s="46" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B40" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D40" s="19" t="s">
+      <c r="H39" s="47"/>
+      <c r="I39" s="47"/>
+    </row>
+    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" s="19"/>
+      <c r="D40" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="F40" s="19" t="s">
+      <c r="E40" s="46"/>
+      <c r="F40" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="G40" s="3" t="s">
+      <c r="G40" s="46" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B41" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D41" s="19" t="s">
+      <c r="H40" s="47"/>
+      <c r="I40" s="47"/>
+    </row>
+    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" s="19"/>
+      <c r="D41" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="F41" s="19" t="s">
+      <c r="E41" s="46"/>
+      <c r="F41" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="G41" s="3" t="s">
+      <c r="G41" s="46" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B42" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D42" s="19" t="s">
+      <c r="H41" s="47"/>
+      <c r="I41" s="47"/>
+    </row>
+    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" s="19"/>
+      <c r="D42" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="F42" s="19" t="s">
+      <c r="E42" s="46"/>
+      <c r="F42" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="G42" s="3" t="s">
+      <c r="G42" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="H42" s="18" t="s">
+      <c r="H42" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="I42" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B43" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D43" s="19" t="s">
+      <c r="I42" s="50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43" s="19"/>
+      <c r="D43" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="F43" s="19" t="s">
+      <c r="E43" s="46"/>
+      <c r="F43" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="G43" s="3" t="s">
+      <c r="G43" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="H43" s="18" t="s">
+      <c r="H43" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="I43" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B44" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D44" s="19" t="s">
+      <c r="I43" s="50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44" s="19"/>
+      <c r="D44" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="F44" s="19" t="s">
+      <c r="E44" s="46"/>
+      <c r="F44" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="G44" s="3" t="s">
+      <c r="G44" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="I44" s="22"/>
-    </row>
-    <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B45" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D45" s="19" t="s">
+      <c r="H44" s="47"/>
+      <c r="I44" s="50"/>
+    </row>
+    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" s="19"/>
+      <c r="D45" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="F45" s="19" t="s">
+      <c r="E45" s="46"/>
+      <c r="F45" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="G45" s="3" t="s">
+      <c r="G45" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="I45" s="22"/>
-    </row>
-    <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B46" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D46" s="19" t="s">
+      <c r="H45" s="47"/>
+      <c r="I45" s="50"/>
+    </row>
+    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" s="19"/>
+      <c r="D46" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="F46" s="19" t="s">
+      <c r="E46" s="46"/>
+      <c r="F46" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="G46" s="3" t="s">
+      <c r="G46" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="I46" s="22"/>
-    </row>
-    <row r="47" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B47" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D47" s="19" t="s">
+      <c r="H46" s="47"/>
+      <c r="I46" s="50"/>
+    </row>
+    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C47" s="19"/>
+      <c r="D47" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="F47" s="19" t="s">
+      <c r="E47" s="46"/>
+      <c r="F47" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="G47" s="3" t="s">
+      <c r="G47" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="H47" s="18" t="s">
+      <c r="H47" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="I47" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B48" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D48" s="19" t="s">
+      <c r="I47" s="50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48" s="19"/>
+      <c r="D48" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="F48" s="19" t="s">
+      <c r="E48" s="46"/>
+      <c r="F48" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="G48" s="3" t="s">
+      <c r="G48" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="H48" s="18" t="s">
+      <c r="H48" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="I48" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B49" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D49" s="19" t="s">
+      <c r="I48" s="50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49" s="19"/>
+      <c r="D49" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="F49" s="19" t="s">
+      <c r="E49" s="46"/>
+      <c r="F49" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="G49" s="3" t="s">
+      <c r="G49" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="H49" s="18" t="s">
+      <c r="H49" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="I49" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B50" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D50" s="3" t="s">
+      <c r="I49" s="50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B50" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C50" s="19"/>
+      <c r="D50" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="E50" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="I50" s="22"/>
-    </row>
-    <row r="51" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B51" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D51" s="3" t="s">
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="23"/>
+    </row>
+    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C51" s="19"/>
+      <c r="D51" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="E51" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="H51" s="18" t="s">
+      <c r="F51" s="20"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="I51" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B52" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D52" s="3" t="s">
+      <c r="I51" s="23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A52" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C52" s="19"/>
+      <c r="D52" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="E52" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="H52" t="s">
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="I52" s="1" t="s">
+      <c r="I52" s="23" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B53" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D53" s="3" t="s">
+    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A53" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C53" s="19"/>
+      <c r="D53" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="E53" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="H53" t="s">
+      <c r="F53" s="20"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="I53" s="1" t="s">
+      <c r="I53" s="23" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B54" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D54" s="3" t="s">
+    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A54" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B54" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C54" s="19"/>
+      <c r="D54" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="E54" s="3" t="s">
+      <c r="E54" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="H54" t="s">
+      <c r="F54" s="20"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="I54" s="1" t="s">
+      <c r="I54" s="23" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B55" s="19" t="s">
+    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A55" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B55" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="29" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B56" s="19" t="s">
+      <c r="D55" s="30"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="31"/>
+      <c r="I55" s="31"/>
+    </row>
+    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A56" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B56" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="29" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B57" s="19" t="s">
+      <c r="D56" s="30"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="30"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="31"/>
+      <c r="I56" s="31"/>
+    </row>
+    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B57" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="29" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B58" s="19" t="s">
+      <c r="D57" s="30"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="31"/>
+      <c r="I57" s="31"/>
+    </row>
+    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A58" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B58" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="29" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B59" s="19" t="s">
+      <c r="D58" s="30"/>
+      <c r="E58" s="30"/>
+      <c r="F58" s="30"/>
+      <c r="G58" s="30"/>
+      <c r="H58" s="31"/>
+      <c r="I58" s="31"/>
+    </row>
+    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B59" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="29" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B60" s="19" t="s">
+      <c r="D59" s="30"/>
+      <c r="E59" s="30"/>
+      <c r="F59" s="30"/>
+      <c r="G59" s="30"/>
+      <c r="H59" s="31"/>
+      <c r="I59" s="31"/>
+    </row>
+    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A60" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B60" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="29" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B61" s="19" t="s">
+      <c r="D60" s="30"/>
+      <c r="E60" s="30"/>
+      <c r="F60" s="30"/>
+      <c r="G60" s="30"/>
+      <c r="H60" s="31"/>
+      <c r="I60" s="31"/>
+    </row>
+    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A61" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B61" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="29" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B62" s="19" t="s">
+      <c r="D61" s="30"/>
+      <c r="E61" s="30"/>
+      <c r="F61" s="30"/>
+      <c r="G61" s="30"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="31"/>
+    </row>
+    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A62" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B62" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="H62" t="s">
+      <c r="D62" s="30"/>
+      <c r="E62" s="30"/>
+      <c r="F62" s="30"/>
+      <c r="G62" s="30"/>
+      <c r="H62" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="I62" s="1" t="s">
+      <c r="I62" s="32" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B63" s="19" t="s">
+    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A63" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B63" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="D63" s="19" t="s">
+      <c r="C63" s="29"/>
+      <c r="D63" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="E63" s="3" t="s">
+      <c r="E63" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="I63" s="22"/>
-    </row>
-    <row r="64" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B64" s="19" t="s">
+      <c r="F63" s="25"/>
+      <c r="G63" s="25"/>
+      <c r="H63" s="26"/>
+      <c r="I63" s="27"/>
+    </row>
+    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A64" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B64" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="D64" s="19" t="s">
+      <c r="C64" s="29"/>
+      <c r="D64" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="E64" s="3" t="s">
+      <c r="E64" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="I64" s="22"/>
-    </row>
-    <row r="65" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B65" s="19" t="s">
+      <c r="F64" s="25"/>
+      <c r="G64" s="25"/>
+      <c r="H64" s="26"/>
+      <c r="I64" s="27"/>
+    </row>
+    <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A65" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B65" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="D65" s="19" t="s">
+      <c r="C65" s="29"/>
+      <c r="D65" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="E65" s="3" t="s">
+      <c r="E65" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="I65" s="22"/>
-    </row>
-    <row r="66" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B66" s="19" t="s">
+      <c r="F65" s="25"/>
+      <c r="G65" s="25"/>
+      <c r="H65" s="26"/>
+      <c r="I65" s="27"/>
+    </row>
+    <row r="66" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A66" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B66" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="D66" s="19" t="s">
+      <c r="C66" s="29"/>
+      <c r="D66" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="E66" s="3" t="s">
+      <c r="E66" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="H66" t="s">
+      <c r="F66" s="25"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="I66" s="1" t="s">
+      <c r="I66" s="27" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B67" s="19" t="s">
+    <row r="67" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A67" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B67" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="D67" s="19" t="s">
+      <c r="C67" s="29"/>
+      <c r="D67" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="E67" s="3" t="s">
+      <c r="E67" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="I67" s="22"/>
-    </row>
-    <row r="68" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B68" s="19" t="s">
+      <c r="F67" s="30"/>
+      <c r="G67" s="30"/>
+      <c r="H67" s="31"/>
+      <c r="I67" s="32"/>
+    </row>
+    <row r="68" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A68" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B68" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="D68" s="19" t="s">
+      <c r="C68" s="29"/>
+      <c r="D68" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="E68" s="3" t="s">
+      <c r="E68" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="I68" s="22"/>
-    </row>
-    <row r="69" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B69" s="19" t="s">
+      <c r="F68" s="30"/>
+      <c r="G68" s="30"/>
+      <c r="H68" s="31"/>
+      <c r="I68" s="32"/>
+    </row>
+    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A69" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B69" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="D69" s="19" t="s">
+      <c r="C69" s="29"/>
+      <c r="D69" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="E69" s="3" t="s">
+      <c r="E69" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="I69" s="22"/>
-    </row>
-    <row r="70" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B70" s="19" t="s">
+      <c r="F69" s="30"/>
+      <c r="G69" s="30"/>
+      <c r="H69" s="31"/>
+      <c r="I69" s="32"/>
+    </row>
+    <row r="70" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A70" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B70" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="D70" s="19" t="s">
+      <c r="C70" s="29"/>
+      <c r="D70" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="E70" s="3" t="s">
+      <c r="E70" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="I70" s="22"/>
-    </row>
-    <row r="71" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B71" s="19" t="s">
+      <c r="F70" s="30"/>
+      <c r="G70" s="30"/>
+      <c r="H70" s="31"/>
+      <c r="I70" s="32"/>
+    </row>
+    <row r="71" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A71" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B71" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="D71" s="19" t="s">
+      <c r="C71" s="29"/>
+      <c r="D71" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="E71" s="3" t="s">
+      <c r="E71" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="H71" t="s">
+      <c r="F71" s="30"/>
+      <c r="G71" s="30"/>
+      <c r="H71" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="I71" s="1" t="s">
+      <c r="I71" s="32" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B72" s="19" t="s">
+    <row r="72" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A72" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B72" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="D72" s="19" t="s">
+      <c r="C72" s="29"/>
+      <c r="D72" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="E72" s="3" t="s">
+      <c r="E72" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="I72" s="22"/>
-    </row>
-    <row r="73" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B73" s="19" t="s">
+      <c r="F72" s="25"/>
+      <c r="G72" s="25"/>
+      <c r="H72" s="26"/>
+      <c r="I72" s="27"/>
+    </row>
+    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A73" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B73" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="D73" s="19" t="s">
+      <c r="C73" s="29"/>
+      <c r="D73" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="E73" s="3" t="s">
+      <c r="E73" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="H73" t="s">
+      <c r="F73" s="25"/>
+      <c r="G73" s="25"/>
+      <c r="H73" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="I73" s="23" t="s">
+      <c r="I73" s="27" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B74" s="19" t="s">
+    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A74" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B74" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="D74" s="19" t="s">
+      <c r="C74" s="29"/>
+      <c r="D74" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="E74" s="3" t="s">
+      <c r="E74" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="I74" s="22"/>
-    </row>
-    <row r="75" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B75" s="19" t="s">
+      <c r="F74" s="30"/>
+      <c r="G74" s="30"/>
+      <c r="H74" s="31"/>
+      <c r="I74" s="32"/>
+    </row>
+    <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A75" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B75" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="D75" s="19" t="s">
+      <c r="C75" s="29"/>
+      <c r="D75" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="E75" s="3" t="s">
+      <c r="E75" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="H75" s="18" t="s">
+      <c r="F75" s="30"/>
+      <c r="G75" s="30"/>
+      <c r="H75" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="I75" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B76" s="19" t="s">
+      <c r="I75" s="32" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A76" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B76" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="D76" s="19" t="s">
+      <c r="C76" s="29"/>
+      <c r="D76" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="E76" s="3" t="s">
+      <c r="E76" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="H76" s="18" t="s">
+      <c r="F76" s="30"/>
+      <c r="G76" s="30"/>
+      <c r="H76" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="I76" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B77" s="19" t="s">
+      <c r="I76" s="32" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A77" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B77" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="D77" s="19" t="s">
+      <c r="C77" s="29"/>
+      <c r="D77" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="E77" s="3" t="s">
+      <c r="E77" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="H77" s="18" t="s">
+      <c r="F77" s="30"/>
+      <c r="G77" s="30"/>
+      <c r="H77" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="I77" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B78" s="19" t="s">
+      <c r="I77" s="32" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A78" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B78" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="D78" s="19" t="s">
+      <c r="C78" s="29"/>
+      <c r="D78" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="E78" s="3" t="s">
+      <c r="E78" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="H78" t="s">
+      <c r="F78" s="30"/>
+      <c r="G78" s="30"/>
+      <c r="H78" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="I78" s="1" t="s">
+      <c r="I78" s="32" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B79" s="19" t="s">
+    <row r="79" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A79" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B79" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C79" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="F79" s="19"/>
-      <c r="H79" t="s">
+      <c r="D79" s="36"/>
+      <c r="E79" s="36"/>
+      <c r="F79" s="34"/>
+      <c r="G79" s="36"/>
+      <c r="H79" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="I79" s="1" t="s">
+      <c r="I79" s="38" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B80" s="19" t="s">
+    <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A80" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="B80" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C80" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="H80" s="18" t="s">
+      <c r="D80" s="41"/>
+      <c r="E80" s="41"/>
+      <c r="F80" s="41"/>
+      <c r="G80" s="41"/>
+      <c r="H80" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="I80" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B81" s="19" t="s">
+      <c r="I80" s="43" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A81" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="B81" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C81" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="H81" s="18" t="s">
+      <c r="D81" s="41"/>
+      <c r="E81" s="41"/>
+      <c r="F81" s="41"/>
+      <c r="G81" s="41"/>
+      <c r="H81" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="I81" s="1" t="s">
+      <c r="I81" s="43" t="s">
         <v>49</v>
       </c>
     </row>
